--- a/biology/Botanique/Balanopaceae/Balanopaceae.xlsx
+++ b/biology/Botanique/Balanopaceae/Balanopaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Balanopaceae (les Balanopacées) sont une petite famille de plantes à fleurs dicotylédones de l'ordre des Malpighiales comprenant une dizaine d'espèces appartenant au genre Balanops.
 Ce sont des petits arbres ou des arbustes des régions subtropicales à tropicales originaires de Nouvelle-Calédonie ou d'Australie.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Balanops dérivé du grec βάλανος / balanos, gland, pour la ressemblance du fruit avec la graine du chêne. L'orthographe alternative Balanopsidaceae serait linguistiquement plus appropriée et fut d’ailleurs utilisée, mais la graphie « Balanopaceae » a néanmoins été conservée en l'état[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Balanops dérivé du grec βάλανος / balanos, gland, pour la ressemblance du fruit avec la graine du chêne. L'orthographe alternative Balanopsidaceae serait linguistiquement plus appropriée et fut d’ailleurs utilisée, mais la graphie « Balanopaceae » a néanmoins été conservée en l'état.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique situe cette famille dans l'ordre des Malpighiales.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (14 mai 2010)[2], World Checklist of Selected Plant Families (WCSP)  (14 mai 2010)[3], DELTA Angio           (14 mai 2010)[4] et NCBI  (30 décembre 2021)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (14 mai 2010), World Checklist of Selected Plant Families (WCSP)  (14 mai 2010), DELTA Angio           (14 mai 2010) et NCBI  (30 décembre 2021) :
 genre Balanops Baill. (1871)</t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (14 mai 2010)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (14 mai 2010) :
 genre Balanops Baill. (1871)
 Balanops australiana F.Muell. (1877)
 Balanops balansae Baill. (1872)
@@ -618,7 +638,7 @@
 Balanops pedicellata (Guillaumin) Hjelmq. (1960)
 Balanops sparsifolia (Schltr.) Hjelmq., Bot. Not. Suppl. 2 (1948)
 Balanops vieillardii Baill. (1872)
-Selon NCBI  (30 décembre 2021)[5] :
+Selon NCBI  (30 décembre 2021) :
 genre Balanops
 Balanops australiana
 Balanops balansae
